--- a/Advanced Excel/mar21.xlsx
+++ b/Advanced Excel/mar21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_One_to_one_Param\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA9D2AC-C923-44A7-8F22-DCE3F90A4DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04873EF0-A7C5-4290-8CB7-B29AF5F7819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Sun</t>
   </si>
@@ -251,13 +251,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Count the number of students having total marks more than 50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,11 +302,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,488 +1477,498 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BAF17-2A3F-4B25-AE49-607A800AF4CF}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="84.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>22</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>B2+C2</f>
         <v>54</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>D2+$E$2</f>
         <v>74</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>55</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>SUM( J:J )</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>31</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">B3+C3</f>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D15" si="0">B3+C3</f>
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F15" si="1">D3+$E$2</f>
         <v>51</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>77</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <f>COUNT(C2:C15)</f>
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>98</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>32</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>83</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <f>COUNT(B2:B15)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>92</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>52</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>33</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <f>COUNTA(K2:K15)</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>8</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>42</v>
       </c>
+      <c r="M11" s="3">
+        <f>COUNTIF(H2:H15, "&gt;=70")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>49</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>27</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>39</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>90</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>80</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <f>SUM(B2:B16)</f>
         <v>210</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f>SUM(C2:C16)</f>
         <v>268</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <f>SUM(D2:D16)</f>
         <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f>ROUND(AVERAGE(D2:D16), 2)</f>
         <v>34.14</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Advanced Excel/mar21.xlsx
+++ b/Advanced Excel/mar21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_One_to_one_Param\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04873EF0-A7C5-4290-8CB7-B29AF5F7819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0B018-37CE-4DE0-835A-BB6375148AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BAF17-2A3F-4B25-AE49-607A800AF4CF}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1869,10 @@
       <c r="K13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <f>COUNTIF(H2:H15, 8)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -1926,6 +1929,10 @@
       <c r="K15" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="M15" s="3">
+        <f>COUNTIFS(B2:B15, "&gt;=25", C2:C15, "&lt;&gt;20")</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M16" s="3" t="s">
@@ -1947,6 +1954,10 @@
       <c r="D17" s="3">
         <f>SUM(D2:D16)</f>
         <v>478</v>
+      </c>
+      <c r="M17" s="3">
+        <f>SUMIF(H2:H15, "&gt;=70", F2:F15)</f>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">

--- a/Advanced Excel/mar21.xlsx
+++ b/Advanced Excel/mar21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_One_to_one_Param\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0B018-37CE-4DE0-835A-BB6375148AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42F5D77-3F90-4725-81F9-FE68EB52760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Alakh Pandya" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>Sun</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Average Marks / student</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Count the number of students having total marks more than 50</t>
@@ -1479,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BAF17-2A3F-4B25-AE49-607A800AF4CF}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1568,14 +1565,19 @@
       <c r="H2" s="3">
         <v>55</v>
       </c>
+      <c r="I2" s="3" t="str">
+        <f>IF(H2&gt;=70, "Yes", "No")</f>
+        <v>No</v>
+      </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>73</v>
+      <c r="L2" s="3">
+        <f>IF(I2="Yes", F2+$G$2, F2)</f>
+        <v>74</v>
       </c>
       <c r="M2" s="3">
         <f>SUM( J:J )</f>
@@ -1600,6 +1602,14 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I20" si="2">IF(H3&gt;=70, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L15" si="3">IF(I3="Yes", F3+$G$2, F3)</f>
+        <v>51</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>63</v>
       </c>
@@ -1625,6 +1635,14 @@
       <c r="H4" s="3">
         <v>77</v>
       </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
       <c r="M4" s="3">
         <f>COUNT(C2:C15)</f>
         <v>11</v>
@@ -1648,8 +1666,16 @@
       <c r="H5" s="3">
         <v>98</v>
       </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J5" s="3">
         <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>64</v>
@@ -1676,11 +1702,19 @@
       <c r="H6" s="3">
         <v>83</v>
       </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
       <c r="M6" s="3">
         <f>COUNT(B2:B15)</f>
@@ -1705,11 +1739,19 @@
       <c r="H7" s="3">
         <v>92</v>
       </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1733,8 +1775,16 @@
       <c r="H8" s="3">
         <v>52</v>
       </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J8" s="3">
         <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>65</v>
@@ -1758,6 +1808,14 @@
       <c r="H9" s="3">
         <v>33</v>
       </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
       <c r="M9" s="3">
         <f>COUNTA(K2:K15)</f>
         <v>8</v>
@@ -1784,11 +1842,19 @@
       <c r="H10" s="3">
         <v>8</v>
       </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>66</v>
@@ -1815,6 +1881,14 @@
       <c r="H11" s="3">
         <v>42</v>
       </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
       <c r="M11" s="3">
         <f>COUNTIF(H2:H15, "&gt;=70")</f>
         <v>6</v>
@@ -1835,11 +1909,19 @@
       <c r="H12" s="3">
         <v>49</v>
       </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>67</v>
@@ -1866,8 +1948,16 @@
       <c r="H13" s="3">
         <v>39</v>
       </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="K13" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="M13" s="4">
         <f>COUNTIF(H2:H15, 8)</f>
@@ -1892,11 +1982,19 @@
       <c r="H14" s="3">
         <v>90</v>
       </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L14" s="3">
+        <f>IF(I14="Yes", F14+$G$2, F14)</f>
+        <v>59</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>68</v>
@@ -1923,11 +2021,19 @@
       <c r="H15" s="3">
         <v>80</v>
       </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="M15" s="3">
         <f>COUNTIFS(B2:B15, "&gt;=25", C2:C15, "&lt;&gt;20")</f>
@@ -1972,6 +2078,12 @@
         <v>70</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="3">
+        <f>COUNTIF(H2:H15, "&gt;=70")</f>
+        <v>6</v>
+      </c>
+    </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M20" s="3" t="s">
         <v>71</v>
@@ -1979,7 +2091,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
